--- a/Puaka-Data/Puaka-Calculations.xlsx
+++ b/Puaka-Data/Puaka-Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2964D3F8-ECDA-4CF3-B381-E9F86995D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A9372-0AC6-43B7-B5FB-5BE0AB4F9FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8983E5DF-0D55-45C9-8235-79BE05AD2A4C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8983E5DF-0D55-45C9-8235-79BE05AD2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,11 +69,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,18 +107,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -424,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8345E71E-0713-4A99-932F-50868FE5C87D}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,409 +453,377 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>418.6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>0.3048*B2</f>
         <v>127.58928000000002</v>
       </c>
-      <c r="D2" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2">
+        <v>8760</v>
+      </c>
+      <c r="E2" s="3">
         <v>128.19499999999999</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f>0.5*0.00716*E2^2</f>
         <v>58.833569729499999</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>7.16/1000*E2</f>
         <v>0.91787620000000003</v>
       </c>
-      <c r="H2" s="3">
-        <f>(3/5)*(911/1000)*0.1778^2</f>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="2">
+        <f>(3/5)*(400/1000)*0.1397^2</f>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I2" s="1">
         <f>0.5*H2*(D2*0.10472)^2</f>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>420.7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:C11" si="0">0.3048*B3</f>
         <v>128.22936000000001</v>
       </c>
-      <c r="D3" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3">
+        <v>8760</v>
+      </c>
+      <c r="E3">
         <v>128.80000000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F11" si="1">0.5*0.00716*E3^2</f>
         <v>59.390195200000008</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G11" si="2">7.16/1000*E3</f>
         <v>0.92220800000000014</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="3">(3/5)*(911/1000)*0.1778^2</f>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I11" si="4">0.5*H3*(D3*0.10472)^2</f>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H3" s="2">
+        <f>(3/5)*(400/1000)*0.1397^2</f>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="3">0.5*H3*(D3*0.10472)^2</f>
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>424.4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>129.35712000000001</v>
       </c>
-      <c r="D4" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4">
+        <v>8760</v>
+      </c>
+      <c r="E4" s="3">
         <v>130.012</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>60.513170115519998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="2"/>
         <v>0.93088592000000003</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
+        <f>(3/5)*(400/1000)*0.1397^2</f>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>430.1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>131.09448</v>
       </c>
-      <c r="D5" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5">
+        <v>8760</v>
+      </c>
+      <c r="E5" s="3">
         <v>131.72800000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>62.121112222720001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>0.94317248000000009</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
+        <f t="shared" ref="H3:H11" si="4">(3/5)*(400/1000)*0.1397^2</f>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>426.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>129.90576000000001</v>
       </c>
-      <c r="D6" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6">
+        <v>8760</v>
+      </c>
+      <c r="E6" s="3">
         <v>130.51599999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>0.5*0.00717*E6^2</f>
         <v>61.068418127759998</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>7.17/1000*E6</f>
         <v>0.93579972</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>427.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>130.24104</v>
       </c>
-      <c r="D7" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7">
+        <v>8760</v>
+      </c>
+      <c r="E7" s="3">
         <v>130.81899999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" ref="F7:F9" si="5">0.5*0.00717*E7^2</f>
         <v>61.352294578184988</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7:G9" si="6">7.17/1000*E7</f>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G8" si="6">7.17/1000*E7</f>
         <v>0.93797222999999996</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>429</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>130.75919999999999</v>
       </c>
-      <c r="D8" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8">
+        <v>8760</v>
+      </c>
+      <c r="E8" s="3">
         <v>131.42500000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="5"/>
         <v>61.922022290625016</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="6"/>
         <v>0.94231725000000011</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>430.3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>131.15544</v>
       </c>
-      <c r="D9" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9">
+        <v>8760</v>
+      </c>
+      <c r="E9" s="3">
         <v>131.82900000000001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="5"/>
         <v>62.303303588985017</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f>7.17/1000*E9</f>
         <v>0.94521393000000009</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>422.3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>128.71704</v>
       </c>
-      <c r="D10" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10">
+        <v>8760</v>
+      </c>
+      <c r="E10" s="3">
         <v>129.30500000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>59.856823229500002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>0.92582380000000009</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>419.5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>127.86360000000001</v>
       </c>
-      <c r="D11" s="1">
-        <v>8760</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11">
+        <v>8760</v>
+      </c>
+      <c r="E11" s="3">
         <v>128.49799999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>59.112014894319991</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>0.92004567999999998</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6838615999999986E-3</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>1.7279578344000002E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>7270.6062321859818</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>1970.7953898933745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
